--- a/data/trans_dic/P04B1_2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5776987882625196</v>
+        <v>0.5776987882625197</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.5367834217494261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5536842471315561</v>
+        <v>0.553684247131556</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5344466419146122</v>
+        <v>0.5367367668330936</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5081563478151379</v>
+        <v>0.5103199923147298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5311570438220834</v>
+        <v>0.5306093724082862</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6138194956953411</v>
+        <v>0.6189439873349856</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.563448309036232</v>
+        <v>0.5616279683727813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5760125051903948</v>
+        <v>0.5774773299534545</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.631337391162124</v>
+        <v>0.6313373911621241</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.629972461122478</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6089255723334281</v>
+        <v>0.6078573463801576</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6112699107023964</v>
+        <v>0.6090571839137704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6142865791778234</v>
+        <v>0.6149215619638856</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6544007078982202</v>
+        <v>0.652991436836536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6489243214741723</v>
+        <v>0.6487122230226952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6451385607045148</v>
+        <v>0.6459611022993655</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.6668886012140998</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6858309759952276</v>
+        <v>0.6858309759952277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.676519734646882</v>
+        <v>0.6765197346468819</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6279636338469373</v>
+        <v>0.6296018385155302</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6517901296855578</v>
+        <v>0.6550756108271735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6517409047607156</v>
+        <v>0.6499707330832276</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7039847872455876</v>
+        <v>0.7073871387761016</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.715404166595547</v>
+        <v>0.7159838465830249</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7013037248508109</v>
+        <v>0.7012949054776558</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6125686392300497</v>
+        <v>0.6113594761525782</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.60638191072436</v>
+        <v>0.6060606443714268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6126398568936232</v>
+        <v>0.6138954143023514</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6475007423914951</v>
+        <v>0.6465584752833172</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.634459590903371</v>
+        <v>0.6344108394773206</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6358532011596707</v>
+        <v>0.6365878960995746</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>309193</v>
+        <v>310518</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>417724</v>
+        <v>419502</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>743921</v>
+        <v>743154</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>355112</v>
+        <v>358077</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>463176</v>
+        <v>461680</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>806744</v>
+        <v>808796</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1356268</v>
+        <v>1353889</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1326459</v>
+        <v>1321658</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2701214</v>
+        <v>2704006</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1457555</v>
+        <v>1454416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1408170</v>
+        <v>1407709</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2836880</v>
+        <v>2840497</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>444678</v>
+        <v>445838</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>477408</v>
+        <v>479814</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>938887</v>
+        <v>936337</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>498511</v>
+        <v>500920</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>524002</v>
+        <v>524427</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1010286</v>
+        <v>1010274</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2152548</v>
+        <v>2148299</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2258469</v>
+        <v>2257273</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4434575</v>
+        <v>4443664</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2275298</v>
+        <v>2271987</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2363045</v>
+        <v>2362863</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4602604</v>
+        <v>4607922</v>
       </c>
     </row>
     <row r="20">
